--- a/root/packages/mpi/ballot-2023-may/StructureDefinition-ee-mpi-socialhistory-marital-status.xlsx
+++ b/root/packages/mpi/ballot-2023-may/StructureDefinition-ee-mpi-socialhistory-marital-status.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2867" uniqueCount="579">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2867" uniqueCount="575">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-30T09:50:45+03:00</t>
+    <t>2023-05-30T18:29:05+03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -775,44 +775,13 @@
     <t>http://hl7.org/fhir/ValueSet/observation-category</t>
   </si>
   <si>
-    <t xml:space="preserve">pattern:coding}
-</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
     <t>FiveWs.class</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
   </si>
   <si>
-    <t>Observation.category:obscat</t>
-  </si>
-  <si>
-    <t>obscat</t>
-  </si>
-  <si>
-    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
-  &lt;coding&gt;
-    &lt;system value="http://terminology.hl7.org/CodeSystem/observation-category"/&gt;
-    &lt;code value="social-history"/&gt;
-    &lt;display value="Social history"/&gt;
-  &lt;/coding&gt;
-&lt;/valueCodeableConcept&gt;</t>
-  </si>
-  <si>
-    <t>https://fhir.ee/ValueSet/ee-observation-category</t>
-  </si>
-  <si>
-    <t>Observation.category:obscat.id</t>
-  </si>
-  <si>
     <t>Observation.category.id</t>
-  </si>
-  <si>
-    <t>Observation.category:obscat.extension</t>
   </si>
   <si>
     <t>Observation.category.extension</t>
@@ -825,7 +794,7 @@
     <t>Extensions are always sliced by (at least) url</t>
   </si>
   <si>
-    <t>Observation.category:obscat.coding</t>
+    <t>open</t>
   </si>
   <si>
     <t>Observation.category.coding</t>
@@ -847,6 +816,10 @@
     <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
   </si>
   <si>
+    <t xml:space="preserve">pattern:$this}
+</t>
+  </si>
+  <si>
     <t>CodeableConcept.coding</t>
   </si>
   <si>
@@ -856,19 +829,35 @@
     <t>union(., ./translation)</t>
   </si>
   <si>
-    <t>Observation.category:obscat.coding.id</t>
+    <t>Observation.category.coding:obscat</t>
+  </si>
+  <si>
+    <t>obscat</t>
+  </si>
+  <si>
+    <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
+  &lt;system value="http://terminology.hl7.org/CodeSystem/observation-category"/&gt;
+  &lt;code value="social-history"/&gt;
+  &lt;display value="Social history"/&gt;
+&lt;/valueCoding&gt;</t>
+  </si>
+  <si>
+    <t>https://fhir.ee/ValueSet/ee-observation-category</t>
+  </si>
+  <si>
+    <t>Observation.category.coding:obscat.id</t>
   </si>
   <si>
     <t>Observation.category.coding.id</t>
   </si>
   <si>
-    <t>Observation.category:obscat.coding.extension</t>
+    <t>Observation.category.coding:obscat.extension</t>
   </si>
   <si>
     <t>Observation.category.coding.extension</t>
   </si>
   <si>
-    <t>Observation.category:obscat.coding.system</t>
+    <t>Observation.category.coding:obscat.system</t>
   </si>
   <si>
     <t>Observation.category.coding.system</t>
@@ -898,7 +887,7 @@
     <t>./codeSystem</t>
   </si>
   <si>
-    <t>Observation.category:obscat.coding.version</t>
+    <t>Observation.category.coding:obscat.version</t>
   </si>
   <si>
     <t>Observation.category.coding.version</t>
@@ -922,7 +911,7 @@
     <t>./codeSystemVersion</t>
   </si>
   <si>
-    <t>Observation.category:obscat.coding.code</t>
+    <t>Observation.category.coding:obscat.code</t>
   </si>
   <si>
     <t>Observation.category.coding.code</t>
@@ -950,7 +939,7 @@
     <t>./code</t>
   </si>
   <si>
-    <t>Observation.category:obscat.coding.display</t>
+    <t>Observation.category.coding:obscat.display</t>
   </si>
   <si>
     <t>Observation.category.coding.display</t>
@@ -974,7 +963,7 @@
     <t>CV.displayName</t>
   </si>
   <si>
-    <t>Observation.category:obscat.coding.userSelected</t>
+    <t>Observation.category.coding:obscat.userSelected</t>
   </si>
   <si>
     <t>Observation.category.coding.userSelected</t>
@@ -1003,9 +992,6 @@
   </si>
   <si>
     <t>CD.codingRationale</t>
-  </si>
-  <si>
-    <t>Observation.category:obscat.text</t>
   </si>
   <si>
     <t>Observation.category.text</t>
@@ -4881,7 +4867,7 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>81</v>
@@ -4945,14 +4931,16 @@
         <v>82</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="AC23" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="AD23" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>243</v>
+        <v>82</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>233</v>
@@ -4973,7 +4961,7 @@
         <v>82</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>82</v>
@@ -4982,7 +4970,7 @@
         <v>82</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="AP23" t="s" s="2">
         <v>82</v>
@@ -4990,14 +4978,12 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="C24" t="s" s="2">
-        <v>247</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
         <v>82</v>
       </c>
@@ -5006,10 +4992,10 @@
         <v>80</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>82</v>
@@ -5018,26 +5004,22 @@
         <v>82</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>234</v>
+        <v>95</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>235</v>
+        <v>183</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>238</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>248</v>
+        <v>82</v>
       </c>
       <c r="S24" t="s" s="2">
         <v>82</v>
@@ -5055,11 +5037,13 @@
         <v>82</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="Y24" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="Y24" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="Z24" t="s" s="2">
-        <v>249</v>
+        <v>82</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>82</v>
@@ -5077,25 +5061,25 @@
         <v>82</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>233</v>
+        <v>185</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>82</v>
+        <v>186</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>244</v>
+        <v>82</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>82</v>
@@ -5104,7 +5088,7 @@
         <v>82</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>245</v>
+        <v>187</v>
       </c>
       <c r="AP24" t="s" s="2">
         <v>82</v>
@@ -5112,21 +5096,21 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>82</v>
+        <v>140</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>82</v>
@@ -5138,15 +5122,17 @@
         <v>82</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>95</v>
+        <v>141</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>183</v>
+        <v>142</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="N25" s="2"/>
+        <v>189</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>144</v>
+      </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>82</v>
@@ -5183,31 +5169,31 @@
         <v>82</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>82</v>
+        <v>246</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>82</v>
+        <v>247</v>
       </c>
       <c r="AD25" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>82</v>
+        <v>248</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>186</v>
+        <v>82</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>82</v>
@@ -5230,18 +5216,18 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>140</v>
+        <v>82</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>81</v>
@@ -5253,21 +5239,23 @@
         <v>82</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>141</v>
+        <v>250</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>142</v>
+        <v>251</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>189</v>
+        <v>252</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="O26" s="2"/>
+        <v>253</v>
+      </c>
+      <c r="O26" t="s" s="2">
+        <v>254</v>
+      </c>
       <c r="P26" t="s" s="2">
         <v>82</v>
       </c>
@@ -5303,19 +5291,17 @@
         <v>82</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="AC26" t="s" s="2">
         <v>255</v>
       </c>
+      <c r="AC26" s="2"/>
       <c r="AD26" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>190</v>
+        <v>256</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
@@ -5327,7 +5313,7 @@
         <v>82</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>146</v>
+        <v>105</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>82</v>
@@ -5339,10 +5325,10 @@
         <v>82</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>82</v>
+        <v>257</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>187</v>
+        <v>258</v>
       </c>
       <c r="AP26" t="s" s="2">
         <v>82</v>
@@ -5350,24 +5336,26 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="C27" s="2"/>
+        <v>249</v>
+      </c>
+      <c r="C27" t="s" s="2">
+        <v>260</v>
+      </c>
       <c r="D27" t="s" s="2">
         <v>82</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>82</v>
@@ -5376,26 +5364,26 @@
         <v>94</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>82</v>
+        <v>261</v>
       </c>
       <c r="S27" t="s" s="2">
         <v>82</v>
@@ -5413,13 +5401,11 @@
         <v>82</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y27" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="Y27" s="2"/>
       <c r="Z27" t="s" s="2">
-        <v>82</v>
+        <v>262</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>82</v>
@@ -5437,7 +5423,7 @@
         <v>82</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
@@ -5461,10 +5447,10 @@
         <v>82</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="AP27" t="s" s="2">
         <v>82</v>
@@ -5472,10 +5458,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5590,10 +5576,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5663,16 +5649,16 @@
         <v>82</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="AD29" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>190</v>
@@ -5710,10 +5696,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5739,23 +5725,23 @@
         <v>107</v>
       </c>
       <c r="L30" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="O30" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>275</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="S30" t="s" s="2">
         <v>82</v>
@@ -5797,7 +5783,7 @@
         <v>82</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
@@ -5821,10 +5807,10 @@
         <v>82</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="AP30" t="s" s="2">
         <v>82</v>
@@ -5832,10 +5818,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5861,13 +5847,13 @@
         <v>182</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5917,7 +5903,7 @@
         <v>82</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
@@ -5941,10 +5927,10 @@
         <v>82</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="AP31" t="s" s="2">
         <v>82</v>
@@ -5952,10 +5938,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5981,14 +5967,14 @@
         <v>113</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>82</v>
@@ -6037,7 +6023,7 @@
         <v>82</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
@@ -6046,7 +6032,7 @@
         <v>93</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>105</v>
@@ -6061,10 +6047,10 @@
         <v>82</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="AP32" t="s" s="2">
         <v>82</v>
@@ -6072,10 +6058,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6101,14 +6087,14 @@
         <v>182</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>82</v>
@@ -6157,7 +6143,7 @@
         <v>82</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
@@ -6166,7 +6152,7 @@
         <v>93</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>105</v>
@@ -6181,10 +6167,10 @@
         <v>82</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="AP33" t="s" s="2">
         <v>82</v>
@@ -6192,10 +6178,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6218,19 +6204,19 @@
         <v>94</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="N34" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="O34" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>311</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>82</v>
@@ -6279,7 +6265,7 @@
         <v>82</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
@@ -6303,10 +6289,10 @@
         <v>82</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="AP34" t="s" s="2">
         <v>82</v>
@@ -6314,10 +6300,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6343,16 +6329,16 @@
         <v>182</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>82</v>
@@ -6401,7 +6387,7 @@
         <v>82</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
@@ -6425,10 +6411,10 @@
         <v>82</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="AP35" t="s" s="2">
         <v>82</v>
@@ -6436,14 +6422,14 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -6465,23 +6451,23 @@
         <v>234</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="S36" t="s" s="2">
         <v>82</v>
@@ -6499,13 +6485,13 @@
         <v>82</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>82</v>
@@ -6523,7 +6509,7 @@
         <v>82</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>93</v>
@@ -6532,36 +6518,36 @@
         <v>93</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>105</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>206</v>
       </c>
       <c r="AP36" t="s" s="2">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6584,19 +6570,19 @@
         <v>94</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="O37" t="s" s="2">
         <v>341</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>345</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>82</v>
@@ -6645,7 +6631,7 @@
         <v>82</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
@@ -6660,19 +6646,19 @@
         <v>105</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="AP37" t="s" s="2">
         <v>82</v>
@@ -6680,10 +6666,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6706,16 +6692,16 @@
         <v>94</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6765,7 +6751,7 @@
         <v>82</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -6783,16 +6769,16 @@
         <v>82</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="AP38" t="s" s="2">
         <v>82</v>
@@ -6800,14 +6786,14 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -6826,19 +6812,19 @@
         <v>94</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="O39" t="s" s="2">
         <v>358</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>362</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>82</v>
@@ -6887,7 +6873,7 @@
         <v>82</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -6902,19 +6888,19 @@
         <v>105</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="AP39" t="s" s="2">
         <v>82</v>
@@ -6922,14 +6908,14 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -6948,19 +6934,19 @@
         <v>94</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="O40" t="s" s="2">
         <v>369</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>373</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>82</v>
@@ -7009,7 +6995,7 @@
         <v>82</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
@@ -7024,19 +7010,19 @@
         <v>105</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="AP40" t="s" s="2">
         <v>82</v>
@@ -7044,10 +7030,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7070,16 +7056,16 @@
         <v>94</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -7129,7 +7115,7 @@
         <v>82</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -7147,16 +7133,16 @@
         <v>82</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="AP41" t="s" s="2">
         <v>82</v>
@@ -7164,10 +7150,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7190,17 +7176,17 @@
         <v>94</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>82</v>
@@ -7249,7 +7235,7 @@
         <v>82</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -7264,19 +7250,19 @@
         <v>105</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="AP42" t="s" s="2">
         <v>82</v>
@@ -7284,10 +7270,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7313,16 +7299,16 @@
         <v>234</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>82</v>
@@ -7359,17 +7345,17 @@
         <v>82</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="AC43" s="2"/>
       <c r="AD43" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -7378,7 +7364,7 @@
         <v>93</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>105</v>
@@ -7390,27 +7376,27 @@
         <v>82</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="AP43" t="s" s="2">
-        <v>406</v>
+        <v>402</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="C44" t="s" s="2">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="D44" t="s" s="2">
         <v>82</v>
@@ -7435,16 +7421,16 @@
         <v>234</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>82</v>
@@ -7473,7 +7459,7 @@
       </c>
       <c r="Y44" s="2"/>
       <c r="Z44" t="s" s="2">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>82</v>
@@ -7491,7 +7477,7 @@
         <v>82</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -7500,7 +7486,7 @@
         <v>93</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>105</v>
@@ -7512,24 +7498,24 @@
         <v>82</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="AP44" t="s" s="2">
-        <v>406</v>
+        <v>402</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7555,16 +7541,16 @@
         <v>234</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>82</v>
@@ -7589,13 +7575,13 @@
         <v>82</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>82</v>
@@ -7613,7 +7599,7 @@
         <v>82</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -7622,7 +7608,7 @@
         <v>93</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>105</v>
@@ -7640,7 +7626,7 @@
         <v>138</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="AP45" t="s" s="2">
         <v>82</v>
@@ -7648,14 +7634,14 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -7677,16 +7663,16 @@
         <v>234</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>82</v>
@@ -7711,13 +7697,13 @@
         <v>82</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>82</v>
@@ -7735,7 +7721,7 @@
         <v>82</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7756,24 +7742,24 @@
         <v>82</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="AP46" t="s" s="2">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7796,19 +7782,19 @@
         <v>82</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="O47" t="s" s="2">
         <v>434</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>438</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>82</v>
@@ -7857,7 +7843,7 @@
         <v>82</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -7881,10 +7867,10 @@
         <v>82</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="AP47" t="s" s="2">
         <v>82</v>
@@ -7892,10 +7878,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7921,13 +7907,13 @@
         <v>234</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7953,13 +7939,13 @@
         <v>82</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>82</v>
@@ -7977,7 +7963,7 @@
         <v>82</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
@@ -7986,7 +7972,7 @@
         <v>93</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>105</v>
@@ -7998,24 +7984,24 @@
         <v>82</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="AP48" t="s" s="2">
-        <v>451</v>
+        <v>447</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8038,16 +8024,16 @@
         <v>82</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -8097,7 +8083,7 @@
         <v>82</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
@@ -8106,7 +8092,7 @@
         <v>93</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>105</v>
@@ -8124,7 +8110,7 @@
         <v>82</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="AP49" t="s" s="2">
         <v>82</v>
@@ -8132,10 +8118,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8161,16 +8147,16 @@
         <v>234</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>82</v>
@@ -8195,13 +8181,13 @@
         <v>82</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>82</v>
@@ -8219,7 +8205,7 @@
         <v>82</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
@@ -8243,10 +8229,10 @@
         <v>82</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="AP50" t="s" s="2">
         <v>82</v>
@@ -8254,10 +8240,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8280,16 +8266,16 @@
         <v>82</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -8339,7 +8325,7 @@
         <v>82</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -8351,33 +8337,33 @@
         <v>82</v>
       </c>
       <c r="AJ51" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM51" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="AN51" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="AO51" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="AP51" t="s" s="2">
         <v>471</v>
-      </c>
-      <c r="AK51" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL51" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM51" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="AN51" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="AO51" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="AP51" t="s" s="2">
-        <v>475</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8400,16 +8386,16 @@
         <v>82</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -8459,7 +8445,7 @@
         <v>82</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
@@ -8480,24 +8466,24 @@
         <v>82</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="AP52" t="s" s="2">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8523,16 +8509,16 @@
         <v>178</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>82</v>
@@ -8581,7 +8567,7 @@
         <v>82</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -8593,7 +8579,7 @@
         <v>82</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>82</v>
@@ -8605,10 +8591,10 @@
         <v>82</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="AP53" t="s" s="2">
         <v>82</v>
@@ -8616,10 +8602,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8734,10 +8720,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8854,10 +8840,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8976,10 +8962,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9002,13 +8988,13 @@
         <v>82</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -9059,7 +9045,7 @@
         <v>82</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
@@ -9068,7 +9054,7 @@
         <v>93</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>105</v>
@@ -9083,10 +9069,10 @@
         <v>82</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="AP57" t="s" s="2">
         <v>82</v>
@@ -9094,10 +9080,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9120,13 +9106,13 @@
         <v>82</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -9177,7 +9163,7 @@
         <v>82</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
@@ -9186,7 +9172,7 @@
         <v>93</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>105</v>
@@ -9201,10 +9187,10 @@
         <v>82</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="AP58" t="s" s="2">
         <v>82</v>
@@ -9212,10 +9198,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9241,10 +9227,10 @@
         <v>234</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -9271,13 +9257,13 @@
         <v>82</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>82</v>
@@ -9295,7 +9281,7 @@
         <v>82</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
@@ -9319,10 +9305,10 @@
         <v>82</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="AP59" t="s" s="2">
         <v>82</v>
@@ -9330,10 +9316,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9359,16 +9345,16 @@
         <v>234</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>82</v>
@@ -9396,10 +9382,10 @@
         <v>239</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>82</v>
@@ -9417,7 +9403,7 @@
         <v>82</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
@@ -9438,13 +9424,13 @@
         <v>82</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="AO60" t="s" s="2">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="AP60" t="s" s="2">
         <v>82</v>
@@ -9452,10 +9438,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9481,16 +9467,16 @@
         <v>234</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>82</v>
@@ -9515,13 +9501,13 @@
         <v>82</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>82</v>
@@ -9539,7 +9525,7 @@
         <v>82</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
@@ -9560,13 +9546,13 @@
         <v>82</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="AO61" t="s" s="2">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="AP61" t="s" s="2">
         <v>82</v>
@@ -9574,10 +9560,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9600,17 +9586,17 @@
         <v>82</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>82</v>
@@ -9659,7 +9645,7 @@
         <v>82</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
@@ -9686,7 +9672,7 @@
         <v>82</v>
       </c>
       <c r="AO62" t="s" s="2">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="AP62" t="s" s="2">
         <v>82</v>
@@ -9694,10 +9680,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9720,13 +9706,13 @@
         <v>82</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -9777,7 +9763,7 @@
         <v>82</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
@@ -9786,7 +9772,7 @@
         <v>93</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>105</v>
@@ -9801,10 +9787,10 @@
         <v>82</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="AO63" t="s" s="2">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="AP63" t="s" s="2">
         <v>82</v>
@@ -9812,10 +9798,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9838,16 +9824,16 @@
         <v>94</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -9897,7 +9883,7 @@
         <v>82</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>80</v>
@@ -9921,7 +9907,7 @@
         <v>82</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>200</v>
@@ -9932,10 +9918,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9958,16 +9944,16 @@
         <v>94</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -10017,7 +10003,7 @@
         <v>82</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
@@ -10041,10 +10027,10 @@
         <v>82</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="AO65" t="s" s="2">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="AP65" t="s" s="2">
         <v>82</v>
@@ -10052,10 +10038,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10081,16 +10067,16 @@
         <v>178</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="O66" t="s" s="2">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>82</v>
@@ -10139,7 +10125,7 @@
         <v>82</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>80</v>
@@ -10148,7 +10134,7 @@
         <v>81</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>105</v>
@@ -10163,10 +10149,10 @@
         <v>82</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="AO66" t="s" s="2">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="AP66" t="s" s="2">
         <v>82</v>
@@ -10174,10 +10160,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10292,10 +10278,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10412,10 +10398,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10534,10 +10520,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10563,16 +10549,16 @@
         <v>234</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>82</v>
@@ -10597,13 +10583,13 @@
         <v>82</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>82</v>
@@ -10621,7 +10607,7 @@
         <v>82</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>93</v>
@@ -10630,7 +10616,7 @@
         <v>93</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>105</v>
@@ -10639,13 +10625,13 @@
         <v>82</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>206</v>
@@ -10656,10 +10642,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10682,19 +10668,19 @@
         <v>94</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="O71" t="s" s="2">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>82</v>
@@ -10743,7 +10729,7 @@
         <v>82</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>80</v>
@@ -10764,24 +10750,24 @@
         <v>82</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="AO71" t="s" s="2">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="AP71" t="s" s="2">
-        <v>406</v>
+        <v>402</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10807,16 +10793,16 @@
         <v>234</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="O72" t="s" s="2">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>82</v>
@@ -10841,13 +10827,13 @@
         <v>82</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>82</v>
@@ -10865,7 +10851,7 @@
         <v>82</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>80</v>
@@ -10892,7 +10878,7 @@
         <v>138</v>
       </c>
       <c r="AO72" t="s" s="2">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="AP72" t="s" s="2">
         <v>82</v>
@@ -10900,14 +10886,14 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
@@ -10929,16 +10915,16 @@
         <v>234</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="O73" t="s" s="2">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>82</v>
@@ -10963,13 +10949,13 @@
         <v>82</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="Z73" t="s" s="2">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>82</v>
@@ -10987,7 +10973,7 @@
         <v>82</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>80</v>
@@ -11008,24 +10994,24 @@
         <v>82</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="AO73" t="s" s="2">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="AP73" t="s" s="2">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11051,16 +11037,16 @@
         <v>82</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="O74" t="s" s="2">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>82</v>
@@ -11109,7 +11095,7 @@
         <v>82</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>80</v>
@@ -11133,10 +11119,10 @@
         <v>82</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="AO74" t="s" s="2">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="AP74" t="s" s="2">
         <v>82</v>
